--- a/raw_data/kccbtxcurrdata.xlsx
+++ b/raw_data/kccbtxcurrdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CD995C-8209-45E4-86B0-D2E124415DF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB43971E-F859-47B2-BF5D-751B4AF5D2DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2017,13 +2017,13 @@
         <v>90</v>
       </c>
       <c r="J33" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -2049,7 +2049,7 @@
         <v>5</v>
       </c>
       <c r="H34">
-        <f>SUM(D34:G34)</f>
+        <f t="shared" ref="H34:H67" si="1">SUM(D34:G34)</f>
         <v>38</v>
       </c>
       <c r="I34" s="2">
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <f>SUM(D35:G35)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="I35" s="2">
@@ -2127,7 +2127,7 @@
         <v>9</v>
       </c>
       <c r="H36">
-        <f>SUM(D36:G36)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I36" s="2">
@@ -2166,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="H37">
-        <f>SUM(D37:G37)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I37" s="2">
@@ -2205,7 +2205,7 @@
         <v>9</v>
       </c>
       <c r="H38">
-        <f>SUM(D38:G38)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="I38" s="2">
@@ -2244,7 +2244,7 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <f>SUM(D39:G39)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I39" s="2">
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <f>SUM(D40:G40)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I40" s="2">
@@ -2322,7 +2322,7 @@
         <v>10</v>
       </c>
       <c r="H41">
-        <f>SUM(D41:G41)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="I41" s="2">
@@ -2361,7 +2361,7 @@
         <v>4</v>
       </c>
       <c r="H42">
-        <f>SUM(D42:G42)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="I42" s="2">
@@ -2400,7 +2400,7 @@
         <v>5</v>
       </c>
       <c r="H43">
-        <f>SUM(D43:G43)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I43" s="2">
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="H44">
-        <f>SUM(D44:G44)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I44" s="2">
@@ -2478,7 +2478,7 @@
         <v>15</v>
       </c>
       <c r="H45">
-        <f>SUM(D45:G45)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="I45" s="2">
@@ -2517,7 +2517,7 @@
         <v>11</v>
       </c>
       <c r="H46">
-        <f>SUM(D46:G46)</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I46" s="2">
@@ -2556,7 +2556,7 @@
         <v>12</v>
       </c>
       <c r="H47">
-        <f>SUM(D47:G47)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="I47" s="2">
@@ -2595,7 +2595,7 @@
         <v>28</v>
       </c>
       <c r="H48">
-        <f>SUM(D48:G48)</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="I48" s="2">
@@ -2634,7 +2634,7 @@
         <v>4</v>
       </c>
       <c r="H49">
-        <f>SUM(D49:G49)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I49" s="2">
@@ -2673,7 +2673,7 @@
         <v>8</v>
       </c>
       <c r="H50">
-        <f>SUM(D50:G50)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="I50" s="2">
@@ -2712,7 +2712,7 @@
         <v>9</v>
       </c>
       <c r="H51">
-        <f>SUM(D51:G51)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="I51" s="2">
@@ -2751,7 +2751,7 @@
         <v>4</v>
       </c>
       <c r="H52">
-        <f>SUM(D52:G52)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="I52" s="2">
@@ -2790,7 +2790,7 @@
         <v>10</v>
       </c>
       <c r="H53">
-        <f>SUM(D53:G53)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I53" s="2">
@@ -2829,7 +2829,7 @@
         <v>8</v>
       </c>
       <c r="H54">
-        <f>SUM(D54:G54)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="I54" s="2">
@@ -2868,7 +2868,7 @@
         <v>5</v>
       </c>
       <c r="H55">
-        <f>SUM(D55:G55)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I55" s="2">
@@ -2907,7 +2907,7 @@
         <v>3</v>
       </c>
       <c r="H56">
-        <f>SUM(D56:G56)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I56" s="2">
@@ -2946,7 +2946,7 @@
         <v>3</v>
       </c>
       <c r="H57">
-        <f>SUM(D57:G57)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I57" s="2">
@@ -2985,7 +2985,7 @@
         <v>3</v>
       </c>
       <c r="H58">
-        <f>SUM(D58:G58)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I58" s="2">
@@ -3024,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <f>SUM(D59:G59)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I59" s="2">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="5">
-        <f>SUM(D60:G60)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I60" s="7">
@@ -3102,7 +3102,7 @@
         <v>8</v>
       </c>
       <c r="H61">
-        <f>SUM(D61:G61)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="I61" s="2">
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <f>SUM(D62:G62)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I62" s="2">
@@ -3180,7 +3180,7 @@
         <v>16</v>
       </c>
       <c r="H63">
-        <f>SUM(D63:G63)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="I63" s="2">
@@ -3219,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="H64">
-        <f>SUM(D64:G64)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I64" s="2">
@@ -3258,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="H65">
-        <f>SUM(D65:G65)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I65" s="2">
@@ -3297,7 +3297,7 @@
         <v>2</v>
       </c>
       <c r="H66">
-        <f>SUM(D66:G66)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I66" s="2">
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <f>SUM(D67:G67)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I67" s="2">
@@ -3375,7 +3375,7 @@
         <v>3</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H106" si="1">SUM(D68:G68)</f>
+        <f t="shared" ref="H68:H106" si="2">SUM(D68:G68)</f>
         <v>36</v>
       </c>
       <c r="I68" s="2">
@@ -3414,7 +3414,7 @@
         <v>2</v>
       </c>
       <c r="H69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I69" s="2">
@@ -3453,7 +3453,7 @@
         <v>9</v>
       </c>
       <c r="H70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="I70" s="2">
@@ -3492,7 +3492,7 @@
         <v>6</v>
       </c>
       <c r="H71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="I71" s="2">
@@ -3531,7 +3531,7 @@
         <v>4</v>
       </c>
       <c r="H72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="I72" s="2">
@@ -3570,7 +3570,7 @@
         <v>16</v>
       </c>
       <c r="H73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="I73" s="2">
@@ -3609,7 +3609,7 @@
         <v>3</v>
       </c>
       <c r="H74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I74" s="2">
@@ -3648,7 +3648,7 @@
         <v>5</v>
       </c>
       <c r="H75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I75" s="2">
@@ -3687,7 +3687,7 @@
         <v>9</v>
       </c>
       <c r="H76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="I76" s="2">
@@ -3726,7 +3726,7 @@
         <v>2</v>
       </c>
       <c r="H77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I77" s="2">
@@ -3765,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="H78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="I78" s="2">
@@ -3804,7 +3804,7 @@
         <v>3</v>
       </c>
       <c r="H79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="I79" s="2">
@@ -3843,7 +3843,7 @@
         <v>2</v>
       </c>
       <c r="H80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I80" s="2">
@@ -3882,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="H81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I81" s="2">
@@ -3921,7 +3921,7 @@
         <v>19</v>
       </c>
       <c r="H82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="I82" s="2">
@@ -3960,7 +3960,7 @@
         <v>5</v>
       </c>
       <c r="H83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="I83" s="2">
@@ -3999,7 +3999,7 @@
         <v>6</v>
       </c>
       <c r="H84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="I84" s="2">
@@ -4038,7 +4038,7 @@
         <v>3</v>
       </c>
       <c r="H85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I85" s="2">
@@ -4077,7 +4077,7 @@
         <v>21</v>
       </c>
       <c r="H86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="I86" s="2">
@@ -4116,7 +4116,7 @@
         <v>4</v>
       </c>
       <c r="H87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="I87" s="2">
@@ -4155,7 +4155,7 @@
         <v>13</v>
       </c>
       <c r="H88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="I88" s="2">
@@ -4194,7 +4194,7 @@
         <v>8</v>
       </c>
       <c r="H89" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="I89" s="7">
@@ -4233,7 +4233,7 @@
         <v>9</v>
       </c>
       <c r="H90" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="I90" s="7">
@@ -4272,7 +4272,7 @@
         <v>3</v>
       </c>
       <c r="H91" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I91" s="7">
@@ -4311,7 +4311,7 @@
         <v>8</v>
       </c>
       <c r="H92" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="I92" s="7">
@@ -4350,7 +4350,7 @@
         <v>3</v>
       </c>
       <c r="H93" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I93" s="7">
@@ -4389,7 +4389,7 @@
         <v>2</v>
       </c>
       <c r="H94" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I94" s="7">
@@ -4428,7 +4428,7 @@
         <v>4</v>
       </c>
       <c r="H95" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="I95" s="7">
@@ -4467,7 +4467,7 @@
         <v>7</v>
       </c>
       <c r="H96" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="I96" s="7">
@@ -4506,7 +4506,7 @@
         <v>2</v>
       </c>
       <c r="H97" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I97" s="7">
@@ -4545,7 +4545,7 @@
         <v>11</v>
       </c>
       <c r="H98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="I98" s="2">
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I99" s="2">
@@ -4623,7 +4623,7 @@
         <v>7</v>
       </c>
       <c r="H100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="I100" s="2">
@@ -4662,7 +4662,7 @@
         <v>3</v>
       </c>
       <c r="H101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="I101" s="2">
@@ -4701,7 +4701,7 @@
         <v>3</v>
       </c>
       <c r="H102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I102" s="2">
@@ -4740,7 +4740,7 @@
         <v>2</v>
       </c>
       <c r="H103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I103" s="2">
@@ -4779,7 +4779,7 @@
         <v>19</v>
       </c>
       <c r="H104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="I104" s="2">
@@ -4818,7 +4818,7 @@
         <v>2</v>
       </c>
       <c r="H105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I105" s="2">
@@ -4857,7 +4857,7 @@
         <v>5</v>
       </c>
       <c r="H106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="I106" s="2">
